--- a/calc/Книга1.xlsx
+++ b/calc/Книга1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raydio103\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raydio103\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17820" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17820" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,33 +24,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>freq</t>
-  </si>
-  <si>
-    <t>APB</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>PSC</t>
   </si>
   <si>
-    <t>ARR bit</t>
-  </si>
-  <si>
-    <t>mid pulse</t>
-  </si>
-  <si>
     <t>ADC channels</t>
   </si>
   <si>
-    <t>ADC hz</t>
-  </si>
-  <si>
-    <t>Fc</t>
-  </si>
-  <si>
     <t>Hz</t>
+  </si>
+  <si>
+    <t>APB freq</t>
+  </si>
+  <si>
+    <t>ARR</t>
+  </si>
+  <si>
+    <t>Nyq freq</t>
+  </si>
+  <si>
+    <t>ADC ch freq</t>
+  </si>
+  <si>
+    <t>ADC buffer len</t>
+  </si>
+  <si>
+    <t>audio buffer len</t>
+  </si>
+  <si>
+    <t>samples</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>RX I</t>
+  </si>
+  <si>
+    <t>RX Q</t>
+  </si>
+  <si>
+    <t>MIC</t>
+  </si>
+  <si>
+    <t>SWR1</t>
+  </si>
+  <si>
+    <t>SWR2</t>
+  </si>
+  <si>
+    <t>BUTTON</t>
+  </si>
+  <si>
+    <t>VBAT</t>
+  </si>
+  <si>
+    <t>RESERVE</t>
+  </si>
+  <si>
+    <t>FFT len</t>
+  </si>
+  <si>
+    <t>FFT useful bins</t>
+  </si>
+  <si>
+    <t>Hz per bin</t>
+  </si>
+  <si>
+    <t>SSB FFT width</t>
+  </si>
+  <si>
+    <t>bins</t>
   </si>
 </sst>
 </file>
@@ -67,12 +112,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,8 +144,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -369,110 +428,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2">
+        <v>128000000</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <f>B2/(B3*C4)</f>
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>72000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1024</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <f>B1/B2/B3/B4</f>
+        <v>31250</v>
+      </c>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <f>B7/2</f>
+        <v>15625</v>
+      </c>
+      <c r="C8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>512</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f>C4/2</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E7">
-        <v>12000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f>72000/B1</f>
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
+      <c r="B11" s="1">
+        <f>B10/B4</f>
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <f>B11*(1000/B7)</f>
+        <v>4.0960000000000001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B15/2</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1">
+        <f>B8/B16</f>
+        <v>122.0703125</v>
+      </c>
+      <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <f>E7/(E8+12.5)</f>
-        <v>47524.752475247522</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <f>B1/B10</f>
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <f>B11/2</f>
-        <v>18000</v>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <f>3000/B17</f>
+        <v>24.576000000000001</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/calc/Книга1.xlsx
+++ b/calc/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>PSC</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>bins</t>
+  </si>
+  <si>
+    <t>Fs/4</t>
+  </si>
+  <si>
+    <t>bins with Fs/4</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,77 +533,98 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <v>512</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1">
+        <f>B7/4</f>
+        <v>7812.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <f>B10/B4</f>
-        <v>128</v>
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>512</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
       <c r="B12" s="1">
-        <f>B11*(1000/B7)</f>
+        <f>B11/B4</f>
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <f>B12*(1000/B7)</f>
         <v>4.0960000000000001</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1">
-        <f>B15/2</f>
-        <v>128</v>
+        <v>19</v>
+      </c>
+      <c r="B16" s="2">
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
-        <f>B8/B16</f>
-        <v>122.0703125</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
+        <f>B16/2</f>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <f>B8/B17</f>
+        <v>122.0703125</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="1">
-        <f>3000/B17</f>
+      <c r="B19" s="1">
+        <f>3000/B18</f>
         <v>24.576000000000001</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <f>B19*2</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/calc/Книга1.xlsx
+++ b/calc/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>PSC</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>bins with Fs/4</t>
+  </si>
+  <si>
+    <t>PWM bits</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
 </sst>
 </file>
@@ -434,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,6 +633,18 @@
         <v>25</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1">
+        <f>LOG(B3,2)</f>
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/calc/Книга1.xlsx
+++ b/calc/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>PSC</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>bit</t>
+  </si>
+  <si>
+    <t>CW FFT width</t>
   </si>
 </sst>
 </file>
@@ -440,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +455,7 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -465,51 +468,51 @@
       <c r="E1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>1024</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -524,7 +527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -539,7 +542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -551,7 +554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -562,28 +565,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1">
         <f>B11/B4</f>
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f>B12*(1000/B7)</f>
-        <v>4.0960000000000001</v>
+        <v>8.1920000000000002</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -633,15 +636,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1">
+        <f>150/B18</f>
+        <v>1.2287999999999999</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
         <f>LOG(B3,2)</f>
         <v>10</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>27</v>
       </c>
     </row>

--- a/calc/Книга1.xlsx
+++ b/calc/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>PSC</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Fs/4</t>
-  </si>
-  <si>
-    <t>bins with Fs/4</t>
   </si>
   <si>
     <t>PWM bits</t>
@@ -445,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,6 +476,9 @@
       <c r="B2" s="2">
         <v>2</v>
       </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
@@ -488,7 +488,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>1024</v>
+        <v>2048</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -518,7 +521,7 @@
       </c>
       <c r="B7" s="1">
         <f>B1/B2/B3/B4</f>
-        <v>31250</v>
+        <v>15625</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -533,7 +536,7 @@
       </c>
       <c r="B8" s="1">
         <f>B7/2</f>
-        <v>15625</v>
+        <v>7812.5</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -548,7 +551,7 @@
       </c>
       <c r="B9" s="1">
         <f>B7/4</f>
-        <v>7812.5</v>
+        <v>3906.25</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -580,7 +583,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f>B12*(1000/B7)</f>
-        <v>8.1920000000000002</v>
+        <v>16.384</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -609,7 +612,7 @@
       </c>
       <c r="B18" s="1">
         <f>B8/B17</f>
-        <v>122.0703125</v>
+        <v>61.03515625</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -621,28 +624,22 @@
       </c>
       <c r="B19" s="1">
         <f>3000/B18</f>
-        <v>24.576000000000001</v>
+        <v>49.152000000000001</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
-        <f>B19*2</f>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1">
         <f>150/B18</f>
-        <v>1.2287999999999999</v>
+        <v>2.4575999999999998</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -650,14 +647,14 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1">
         <f>LOG(B3,2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
